--- a/cluster/data test/dist-change-homer-nmdar-ctr-1.xlsx
+++ b/cluster/data test/dist-change-homer-nmdar-ctr-1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athomaz\Google Drive\superresolution\analysis\mycodes\superres-matlab\cluster\data test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Andre\Data\2017\LTD\20171103\control1\analysis\Cluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27105" windowHeight="13395" xr2:uid="{46A22D83-7794-40D9-B05B-08CD63B5A884}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27105" windowHeight="13395" xr2:uid="{C748DE2C-C2D3-4E99-848A-07C0CEB087E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,1445 +369,1982 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4409BCF0-EB9E-4A15-A05E-E8566D6038B9}">
-  <dimension ref="A1:B179"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBA6228-FD4F-4F12-9BC1-EB7656198C11}">
+  <dimension ref="A1:C179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B179"/>
+      <selection sqref="A1:C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>444.82953596925637</v>
       </c>
       <c r="B1">
         <v>347.41663925876105</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>289.22588165575559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>272.69286745455042</v>
       </c>
       <c r="B2">
         <v>169.9577098698409</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>232.00672519387933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>137.92438670050825</v>
       </c>
       <c r="B3">
         <v>260.12612432260954</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>238.89339128105638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>942.52580587271564</v>
       </c>
       <c r="B4">
         <v>1066.6899341713088</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>225.70381833446066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>505.57687469710976</v>
       </c>
       <c r="B5">
         <v>243.79091634006051</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>491.38962631684984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>655.49683687802371</v>
       </c>
       <c r="B6">
         <v>525.73308160044257</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>2385.1935265208454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>280.64476362411375</v>
       </c>
       <c r="B7">
         <v>111.63174804032934</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>372.36851392949177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>968.46157724981379</v>
       </c>
       <c r="B8">
         <v>1067.7784595665221</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>199.00071482781883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>333.50222665637079</v>
       </c>
       <c r="B9">
         <v>482.10982495357541</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>303.56398237426561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1347.574617189438</v>
       </c>
       <c r="B10">
         <v>1241.1493306927023</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>146.3539184570314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>265.97523869329149</v>
       </c>
       <c r="B11">
         <v>301.23948083280891</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>232.72495139005397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>775.3383379645943</v>
       </c>
       <c r="B12">
         <v>947.39707116706541</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>152.59635289907055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1114.452436774902</v>
       </c>
       <c r="B13">
         <v>580.12445937027894</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>203.39764395538137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>122.05038642422892</v>
       </c>
       <c r="B14">
         <v>360.19228555193473</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>300.06855096457735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>75.934294984059633</v>
       </c>
       <c r="B15">
         <v>103.97063014262284</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>125.28755334342056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>71.416770686902055</v>
       </c>
       <c r="B16">
         <v>90.404607577457895</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>194.74613628979159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>845.42786949818662</v>
       </c>
       <c r="B17">
         <v>1209.2493438479835</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>1416.820849983194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>522.36507473705694</v>
       </c>
       <c r="B18">
         <v>181.78280001019036</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>157.62733090150286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>480.85219793136901</v>
       </c>
       <c r="B19">
         <v>501.68523960152493</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>133.26729652184775</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>116.84047816705869</v>
       </c>
       <c r="B20">
         <v>219.54346242740948</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>137.99086360203199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>135.34802312929793</v>
       </c>
       <c r="B21">
         <v>335.98282008964469</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>222.94584273000942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>542.92478572841367</v>
       </c>
       <c r="B22">
         <v>606.85462745620191</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>111.19989949116759</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1377.3056121051234</v>
       </c>
       <c r="B23">
         <v>553.57323040913582</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>91.395991856180984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>550.18289776761321</v>
       </c>
       <c r="B24">
         <v>529.66696673440083</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>269.58417775322317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>171.82038874442395</v>
       </c>
       <c r="B25">
         <v>143.10818481971251</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>114.44689356778203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>250.22303519526628</v>
       </c>
       <c r="B26">
         <v>691.58502128187672</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>764.81231847575918</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>56.951360964227817</v>
       </c>
       <c r="B27">
         <v>66.532054437207407</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>158.09248322841987</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>134.4510948610384</v>
       </c>
       <c r="B28">
         <v>226.56126291276126</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>94.688794093873426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>402.76447938648704</v>
       </c>
       <c r="B29">
         <v>475.57266605521193</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>157.20519307750277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>95.865373991835071</v>
       </c>
       <c r="B30">
         <v>131.17651214704583</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>130.30994115388646</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>198.22822328738374</v>
       </c>
       <c r="B31">
         <v>55.217806155804134</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>109.29806558388019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>444.42614724094551</v>
       </c>
       <c r="B32">
         <v>229.46803855928195</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>213.95984042509698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1017.2711190803552</v>
       </c>
       <c r="B33">
         <v>736.99133247843781</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>511.58832984908446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>197.89518881349477</v>
       </c>
       <c r="B34">
         <v>350.32648565632172</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>242.79621665410556</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>232.62270535523089</v>
       </c>
       <c r="B35">
         <v>561.82171444785342</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>264.44987768220847</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>282.77301781745393</v>
       </c>
       <c r="B36">
         <v>341.51077639710201</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>71.631860659889725</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>48.516647549696515</v>
       </c>
       <c r="B37">
         <v>160.43608646611608</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>197.14966915345963</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1955.3971116199434</v>
       </c>
       <c r="B38">
         <v>247.35166819103256</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>205.92993279403919</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>166.99958376824483</v>
       </c>
       <c r="B39">
         <v>380.10815541759007</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>374.23384001686605</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1504.1502926228707</v>
       </c>
       <c r="B40">
         <v>1380.8196544027955</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>104.46902387616673</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>475.19928633230779</v>
       </c>
       <c r="B41">
         <v>422.87662082656323</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>153.45583715420557</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>408.79005603142389</v>
       </c>
       <c r="B42">
         <v>364.23785220246373</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>313.98485030069935</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>410.01410264889932</v>
       </c>
       <c r="B43">
         <v>77.755881242092343</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>212.76528340755542</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>131.64765471604133</v>
       </c>
       <c r="B44">
         <v>174.01320286185012</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>1991.5809689345765</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>149.87279036574301</v>
       </c>
       <c r="B45">
         <v>115.89588316971746</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>110.38976588588663</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>349.43533036844508</v>
       </c>
       <c r="B46">
         <v>252.75075431122093</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>140.83667822898005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>170.1251303402484</v>
       </c>
       <c r="B47">
         <v>350.02378849181724</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>266.8088782156168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>52.423824854687396</v>
       </c>
       <c r="B48">
         <v>205.95006984805406</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>208.33328381764542</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>274.22158907056223</v>
       </c>
       <c r="B49">
         <v>164.5489142618658</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>293.26627931349333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>266.86756657288839</v>
       </c>
       <c r="B50">
         <v>123.07105994322303</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>93.306105841689117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1144.4672885385346</v>
       </c>
       <c r="B51">
         <v>1532.9292556545997</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>622.91877974716544</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>845.42786949818662</v>
       </c>
       <c r="B52">
         <v>914.14066052481962</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>154.10612402212416</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>144.30070977288892</v>
       </c>
       <c r="B53">
         <v>885.30510023829231</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>314.42911399596017</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>379.63204371142461</v>
       </c>
       <c r="B54">
         <v>136.63107074784944</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>164.83291413140867</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>453.37522248795472</v>
       </c>
       <c r="B55">
         <v>159.03180032181575</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>319.14717195537565</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>210.63582270784408</v>
       </c>
       <c r="B56">
         <v>594.5552877670882</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>611.89803818566645</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>133.93553915212453</v>
       </c>
       <c r="B57">
         <v>558.27065752260808</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>697.28131814818482</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>161.4898498626805</v>
       </c>
       <c r="B58">
         <v>157.46932607498786</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>102.19451974490565</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>158.79196239574193</v>
       </c>
       <c r="B59">
         <v>184.05392428414859</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>146.17456684021619</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>144.75793777698786</v>
       </c>
       <c r="B60">
         <v>1466.5072143976192</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>1524.8355048912674</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>115.26167218155632</v>
       </c>
       <c r="B61">
         <v>158.2755813759801</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>266.42627166547368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>307.69136539884306</v>
       </c>
       <c r="B62">
         <v>55.075706498736324</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>1097.3351157682091</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>375.35819950311958</v>
       </c>
       <c r="B63">
         <v>325.19121197147985</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>204.17355373494001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>563.65586915579581</v>
       </c>
       <c r="B64">
         <v>143.50588094987191</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>71.406004649470432</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>205.46597091085215</v>
       </c>
       <c r="B65">
         <v>81.059412058262751</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>174.19006766874151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>127.9705084324973</v>
       </c>
       <c r="B66">
         <v>58.345979199343141</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>1410.4421255720276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>168.00436436016116</v>
       </c>
       <c r="B67">
         <v>1078.0960897625976</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>877.5503249511388</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>376.155392233138</v>
       </c>
       <c r="B68">
         <v>454.86878597258573</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>199.2530524756711</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1583.6574568811529</v>
       </c>
       <c r="B69">
         <v>1419.0072157046536</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>256.7205526742249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>729.68655357405214</v>
       </c>
       <c r="B70">
         <v>456.40674344685999</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>130.5216517469724</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>605.22537131964179</v>
       </c>
       <c r="B71">
         <v>568.6861061287641</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>189.89841057748549</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1295.5752268705512</v>
       </c>
       <c r="B72">
         <v>82.772957626301647</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>1214.9171835614118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>376.65291637838931</v>
       </c>
       <c r="B73">
         <v>1795.9256711784105</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>141.56000162169076</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>497.81537597304305</v>
       </c>
       <c r="B74">
         <v>889.96184494673923</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>513.32885917717851</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>224.2251858930041</v>
       </c>
       <c r="B75">
         <v>164.21549283269806</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>174.26766686100726</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>257.26368809661858</v>
       </c>
       <c r="B76">
         <v>375.04503040294105</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>3133.4910100801349</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>72.846832459832854</v>
       </c>
       <c r="B77">
         <v>63.748255074017109</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>326.34595723576774</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>114.74039696936282</v>
       </c>
       <c r="B78">
         <v>80.57118425210831</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>62.538231733713836</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>621.49748707104345</v>
       </c>
       <c r="B79">
         <v>456.96612989345329</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>215.34419305938758</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>229.22355311883595</v>
       </c>
       <c r="B80">
         <v>738.47420477377148</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>148.10759792788139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>314.62585254289837</v>
       </c>
       <c r="B81">
         <v>212.64941242773651</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>237.1970716521117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>574.53402223675471</v>
       </c>
       <c r="B82">
         <v>1124.2715337805123</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>290.54356541604551</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>211.4312086538603</v>
       </c>
       <c r="B83">
         <v>201.14904829760627</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>301.57905764423145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>196.70824779157894</v>
       </c>
       <c r="B84">
         <v>199.9227358397159</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>193.16451403555695</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>158.10711800304881</v>
       </c>
       <c r="B85">
         <v>124.97918004123953</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>270.24717730993655</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>240.53060474428955</v>
       </c>
       <c r="B86">
         <v>379.43551235823526</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>182.08147886408557</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>326.55311036962962</v>
       </c>
       <c r="B87">
         <v>544.00755808268218</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>343.83210411460772</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>232.63378073692266</v>
       </c>
       <c r="B88">
         <v>39.262454483250892</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>175.31949616921159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>268.2379265723095</v>
       </c>
       <c r="B89">
         <v>289.5841341908324</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>239.36658738821419</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>485.25337941184341</v>
       </c>
       <c r="B90">
         <v>1443.6873517184049</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>133.46054403198514</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>289.92712089135159</v>
       </c>
       <c r="B91">
         <v>384.42399382997348</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>155.69294266501038</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1511.493566745587</v>
       </c>
       <c r="B92">
         <v>1418.4865972901969</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>731.62522819358128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>343.24035945977835</v>
       </c>
       <c r="B93">
         <v>293.54889256463792</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>192.47393666027247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>97.093602832368745</v>
       </c>
       <c r="B94">
         <v>143.46111129020866</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>102.98566348687335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>155.1211622409204</v>
       </c>
       <c r="B95">
         <v>215.81277034784182</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>510.44895143457808</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>198.05181900962327</v>
       </c>
       <c r="B96">
         <v>55.338842311667619</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>135.00860676513827</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>438.57822035625878</v>
       </c>
       <c r="B97">
         <v>188.09384837842177</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>3530.4449463558635</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>148.12065043995432</v>
       </c>
       <c r="B98">
         <v>67.722463610780721</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>198.21701802832828</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>574.53402223675471</v>
       </c>
       <c r="B99">
         <v>199.81814570301407</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>1298.879261282985</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>131.64765471604133</v>
       </c>
       <c r="B100">
         <v>77.999694005240457</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>343.78903506565052</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>143.47783242851872</v>
       </c>
       <c r="B101">
         <v>148.13348081964523</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>131.79827096607494</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2409.7636502407295</v>
       </c>
       <c r="B102">
         <v>155.00579493218956</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>118.98292302792839</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>170.82215225293024</v>
       </c>
       <c r="B103">
         <v>137.49792122114721</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>154.99329354754173</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>241.81309641017631</v>
       </c>
       <c r="B104">
         <v>160.64059273335553</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>222.14116710289582</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>263.54109319303888</v>
       </c>
       <c r="B105">
         <v>394.24988873553656</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>108.11455656968717</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>252.02943164156781</v>
       </c>
       <c r="B106">
         <v>405.58985593632951</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>223.50584287786717</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>214.97111080250875</v>
       </c>
       <c r="B107">
         <v>297.84983872612275</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>238.0366947115117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>527.27093591686935</v>
       </c>
       <c r="B108">
         <v>193.81011419487356</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>447.22651519146558</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>78.705649883499547</v>
       </c>
       <c r="B109">
         <v>451.9816742701903</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>131.00500938674057</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>84.048274639809023</v>
       </c>
       <c r="B110">
         <v>118.68861249997877</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>233.25220361396453</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>211.40820285283681</v>
       </c>
       <c r="B111">
         <v>140.24993893017486</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>162.01451309643008</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>168.81121225469113</v>
       </c>
       <c r="B112">
         <v>120.8939741745841</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>115.72436237568256</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>105.68447714401192</v>
       </c>
       <c r="B113">
         <v>207.83013857125863</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>160.96214646353383</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>410.86188497180586</v>
       </c>
       <c r="B114">
         <v>230.39779883453667</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>1109.0840537204624</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>181.2276489009144</v>
       </c>
       <c r="B115">
         <v>88.545627369911998</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>175.15190793052352</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>107.12840655786371</v>
       </c>
       <c r="B116">
         <v>157.70042359780081</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>228.37402256893168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>298.11758804044882</v>
       </c>
       <c r="B117">
         <v>1375.8982092825265</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>217.37532258882197</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>7544.2886085569908</v>
       </c>
       <c r="B118">
         <v>204.05865916976646</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>3582.7113550230274</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>733.18074944906641</v>
       </c>
       <c r="B119">
         <v>1693.4722343655098</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>1153.6151911573709</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>799.25651058789174</v>
       </c>
       <c r="B120">
         <v>1167.1525964629327</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>429.95602261411938</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>300.348510738426</v>
       </c>
       <c r="B121">
         <v>147.86168979048929</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>138.57241508066582</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>184.5333004313911</v>
       </c>
       <c r="B122">
         <v>387.10036611069637</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>326.00312847365399</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>299.2618309366261</v>
       </c>
       <c r="B123">
         <v>131.67064657200444</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>150.75524373841625</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>257.26368809661858</v>
       </c>
       <c r="B124">
         <v>180.85944458194726</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>203.21982742995078</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>763.37925762563941</v>
       </c>
       <c r="B125">
         <v>156.80014385643346</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>376.59099807394836</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1003.3149569556081</v>
       </c>
       <c r="B126">
         <v>978.42977272620385</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>158.62745932634169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>268.38514792016167</v>
       </c>
       <c r="B127">
         <v>149.72340133322086</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>220.72633957638877</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>60.82452393253017</v>
       </c>
       <c r="B128">
         <v>120.26090654563913</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>471.08049173962723</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>220.63354720137977</v>
       </c>
       <c r="B129">
         <v>300.38531172966287</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>218.26612190971761</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>149.37450391752978</v>
       </c>
       <c r="B130">
         <v>262.89394342770089</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>1326.3527051936144</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>82.594966083613897</v>
       </c>
       <c r="B131">
         <v>196.41436789184468</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>154.08392100456032</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2150.6516408517937</v>
       </c>
       <c r="B132">
         <v>344.89041125799082</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>128.55481169493177</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>285.95685596830759</v>
       </c>
       <c r="B133">
         <v>211.62362524836192</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>136.9953793894822</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>90.897250581074218</v>
       </c>
       <c r="B134">
         <v>180.35467659553382</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>233.55482054617289</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>629.26019128038001</v>
       </c>
       <c r="B135">
         <v>90.73405628304738</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>175.57078100863649</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>93.247837830937897</v>
       </c>
       <c r="B136">
         <v>109.91110667658816</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>37.94389885964582</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1017.0560436653592</v>
       </c>
       <c r="B137">
         <v>108.40142906282965</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>307.02073607131905</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>188.54002002178163</v>
       </c>
       <c r="B138">
         <v>276.61551306116269</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>162.72963893018192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>264.66657237694221</v>
       </c>
       <c r="B139">
         <v>314.80415994603902</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>115.23533736677626</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>58.215705440090773</v>
       </c>
       <c r="B140">
         <v>939.675893078429</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>1955.1555828384926</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>444.42614724094551</v>
       </c>
       <c r="B141">
         <v>223.12276416595981</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>2435.1709927721363</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>655.49683687802371</v>
       </c>
       <c r="B142">
         <v>180.86622195226403</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>183.2764703312688</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>264.33430008021014</v>
       </c>
       <c r="B143">
         <v>276.63301958047987</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>247.05855391892823</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>213.65221452287355</v>
       </c>
       <c r="B144">
         <v>18.617320448158928</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>232.63204552632649</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>158.10711800304881</v>
       </c>
       <c r="B145">
         <v>3269.7557797972063</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>3179.7975500660809</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>438.57822035625878</v>
       </c>
       <c r="B146">
         <v>432.30602122924989</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>174.23859478138405</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>133.71079157674242</v>
       </c>
       <c r="B147">
         <v>92.814949852743695</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>177.29702145345985</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>103.79731462680915</v>
       </c>
       <c r="B148">
         <v>97.450123592737441</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>187.47786114750554</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>71.153893567291561</v>
       </c>
       <c r="B149">
         <v>83.215946475013212</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>256.34365651627365</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1481.6973035385965</v>
       </c>
       <c r="B150">
         <v>155.76641732482108</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>1548.2533802115602</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>410.86188497180586</v>
       </c>
       <c r="B151">
         <v>866.87266630726981</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>192.21427911906872</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1481.6973035385965</v>
       </c>
       <c r="B152">
         <v>1571.1408307133097</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>107.75488662033779</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>138.01432955241575</v>
       </c>
       <c r="B153">
         <v>166.86904004940934</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>438.9480351762798</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>103.07079395778668</v>
       </c>
       <c r="B154">
         <v>91.82701067458801</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>208.29608275697805</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>145.33762079524843</v>
       </c>
       <c r="B155">
         <v>232.26338114712715</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>161.00919629470312</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>207.24367154686999</v>
       </c>
       <c r="B156">
         <v>1905.4456315714972</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>93.227554964380744</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>733.18074944906641</v>
       </c>
       <c r="B157">
         <v>120.63657413580391</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>640.68684954130003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>285.45246270827749</v>
       </c>
       <c r="B158">
         <v>43.622117029504118</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>1381.9689086983865</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>136.66689135395217</v>
       </c>
       <c r="B159">
         <v>228.41672910035683</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>284.65333330933652</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>151.1803296128322</v>
       </c>
       <c r="B160">
         <v>31.368243959721859</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>119.56653083520281</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>223.51288984632623</v>
       </c>
       <c r="B161">
         <v>153.87459728443113</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>236.91433085433047</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>85.1271206629944</v>
       </c>
       <c r="B162">
         <v>391.73975471018196</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>330.96967894257955</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>341.30762752872124</v>
       </c>
       <c r="B163">
         <v>604.98205604139775</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>69.5573509599255</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2177.3068264410094</v>
       </c>
       <c r="B164">
         <v>4986.1551966315183</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>3021.8760949627194</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1124.170398544951</v>
       </c>
       <c r="B165">
         <v>143.20562518908562</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>1109.0110319679663</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164.08021631636987</v>
       </c>
       <c r="B166">
         <v>91.11777688244733</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>171.83413631957495</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>115.15338394856002</v>
       </c>
       <c r="B167">
         <v>136.37458837085893</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>391.81060873048602</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>232.97065649773643</v>
       </c>
       <c r="B168">
         <v>62.191994474458632</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>184.96299784737431</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>444.42614724094551</v>
       </c>
       <c r="B169">
         <v>259.88721775248894</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>1806.6681457701511</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>285.45246270827749</v>
       </c>
       <c r="B170">
         <v>322.85798914147813</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>180.85350799827867</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>264.66657237694221</v>
       </c>
       <c r="B171">
         <v>1658.9277274322187</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>1804.615016222843</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>73.362034391948868</v>
       </c>
       <c r="B172">
         <v>48.593795572419836</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>174.62218910224678</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2150.6516408517937</v>
       </c>
       <c r="B173">
         <v>7134.4082151164002</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>7582.9586229320012</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1026.7772233487567</v>
       </c>
       <c r="B174">
         <v>969.26174754000385</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>73.342776343550469</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>250.22303519526628</v>
       </c>
       <c r="B175">
         <v>3032.4930958327473</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>3068.5758095757997</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>460.7110348251706</v>
       </c>
       <c r="B176">
         <v>1412.2761435987045</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>108.67951901632939</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1504.1502926228707</v>
       </c>
       <c r="B177">
         <v>172.20662282657585</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>1336.5475540588714</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>128.21973157180125</v>
       </c>
       <c r="B178">
         <v>511.98454042564663</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>500.84873386674315</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>244.43849934213321</v>
       </c>
       <c r="B179">
         <v>348.20068479243059</v>
+      </c>
+      <c r="C179">
+        <v>183.55348924660481</v>
       </c>
     </row>
   </sheetData>
